--- a/biology/Botanique/Rhynchosia_buettneri/Rhynchosia_buettneri.xlsx
+++ b/biology/Botanique/Rhynchosia_buettneri/Rhynchosia_buettneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhynchosia buettneri est une espèce de plantes de la famille des Fabaceae et du genre Rhynchosia présente en Afrique tropicale[2].
-Son épithète spécifique buettneri rend hommage au botaniste allemand Richard Büttner (en), explorateur du bassin du Congo[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhynchosia buettneri est une espèce de plantes de la famille des Fabaceae et du genre Rhynchosia présente en Afrique tropicale.
+Son épithète spécifique buettneri rend hommage au botaniste allemand Richard Büttner (en), explorateur du bassin du Congo.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau lianescent avec des branches cylindriques lisses d'environ 25 mm de diamètre[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau lianescent avec des branches cylindriques lisses d'environ 25 mm de diamètre,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, du Sénégal au Nigeria, au sud de la république centrafricaine et au nord de la république démocratique du Congo[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, du Sénégal au Nigeria, au sud de la république centrafricaine et au nord de la république démocratique du Congo.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les savanes arbustives, les forêts galeries, la forêt dense sèche en bas fond, aux lisières[2],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les savanes arbustives, les forêts galeries, la forêt dense sèche en bas fond, aux lisières,.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses longues grappes de fleurs striées de pourpre en font une plante ornementale. Récoltées à l'état sauvage, les feuilles sont utilisées pour traiter des troubles digestifs[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses longues grappes de fleurs striées de pourpre en font une plante ornementale. Récoltées à l'état sauvage, les feuilles sont utilisées pour traiter des troubles digestifs.
 </t>
         </is>
       </c>
